--- a/examplePoj/excel/cfg_hero.xlsx
+++ b/examplePoj/excel/cfg_hero.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11910"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output_cfg_hero" sheetId="1" r:id="rId1"/>
     <sheet name="output_cfg_herolv" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -307,12 +320,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -353,64 +366,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -422,29 +377,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +423,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,7 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,25 +573,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,43 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,37 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +633,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,25 +693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,17 +757,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,16 +806,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,15 +846,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -817,177 +854,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
@@ -995,7 +1008,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1025,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1024,52 +1040,52 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 28" xfId="49"/>
@@ -1369,22 +1385,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="8.75454545454545" customWidth="1"/>
+    <col min="2" max="2" width="17.2545454545455" customWidth="1"/>
+    <col min="3" max="4" width="21.1272727272727" customWidth="1"/>
+    <col min="5" max="5" width="18.3727272727273" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="9" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="21.2545454545455" customWidth="1"/>
+    <col min="8" max="9" width="14.2545454545455" customWidth="1"/>
+    <col min="10" max="10" width="19.3727272727273" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1565,68 +1581,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
+    <row r="5" spans="1:19">
+      <c r="A5">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:19">
-      <c r="A5">
-        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1635,13 +1592,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -1662,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -1683,9 +1640,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:19">
+    <row r="6" ht="15.5" spans="1:19">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1694,13 +1651,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -1721,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -1742,9 +1699,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:19">
+    <row r="7" ht="15.5" spans="1:19">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1753,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -1780,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1801,9 +1758,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:19">
+    <row r="8" ht="15.5" spans="1:19">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1812,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -1839,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -1860,9 +1817,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:19">
+    <row r="9" spans="1:19">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -1871,13 +1828,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1898,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -1919,9 +1876,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:19">
+    <row r="10" spans="1:19">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1930,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -1957,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1978,9 +1935,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:19">
+    <row r="11" spans="1:19">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1989,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -2016,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>5</v>
@@ -2037,9 +1994,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:19">
+    <row r="12" spans="1:19">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -2048,13 +2005,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -2075,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -2098,7 +2055,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -2107,13 +2064,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -2134,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -2155,9 +2112,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:19">
+    <row r="14" spans="1:19">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -2166,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -2193,7 +2150,7 @@
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -2214,9 +2171,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:19">
+    <row r="15" spans="1:19">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -2225,13 +2182,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -2252,7 +2209,7 @@
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -2273,9 +2230,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:19">
+    <row r="16" spans="1:19">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -2284,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -2311,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>5</v>
@@ -2334,7 +2291,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2343,13 +2300,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -2370,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>5</v>
@@ -2391,9 +2348,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:19">
+    <row r="18" spans="1:19">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -2402,13 +2359,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -2429,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>5</v>
@@ -2452,7 +2409,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2461,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -2488,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -2509,9 +2466,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:19">
+    <row r="20" spans="1:19">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2520,13 +2477,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -2547,7 +2504,7 @@
         <v>10</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>5</v>
@@ -2570,7 +2527,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2579,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -2606,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>5</v>
@@ -2629,7 +2586,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2638,13 +2595,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -2665,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -2686,9 +2643,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:19">
+    <row r="23" spans="1:19">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -2697,13 +2654,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -2724,7 +2681,7 @@
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -2745,9 +2702,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:19">
+    <row r="24" spans="1:19">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -2756,13 +2713,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -2783,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -2804,9 +2761,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:19">
+    <row r="25" spans="1:19">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -2815,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
@@ -2842,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>5</v>
@@ -2863,9 +2820,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:19">
+    <row r="26" spans="1:19">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2874,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
@@ -2901,7 +2858,7 @@
         <v>10</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>5</v>
@@ -2922,9 +2879,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:19">
+    <row r="27" spans="1:19">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2933,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
@@ -2960,7 +2917,7 @@
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -2981,9 +2938,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:19">
+    <row r="28" spans="1:19">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2992,13 +2949,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -3019,7 +2976,7 @@
         <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -3042,10 +2999,10 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29">
-        <v>1001</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3054,7 +3011,7 @@
         <v>23</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s">
         <v>81</v>
@@ -3101,7 +3058,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B30" t="s">
         <v>82</v>
@@ -3112,8 +3069,8 @@
       <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>84</v>
+      <c r="E30" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>81</v>
@@ -3158,9 +3115,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:19">
+    <row r="31" spans="1:19">
       <c r="A31">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B31" t="s">
         <v>82</v>
@@ -3171,8 +3128,8 @@
       <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>85</v>
+      <c r="E31" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F31" t="s">
         <v>81</v>
@@ -3214,6 +3171,65 @@
         <v>10</v>
       </c>
       <c r="S31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>1003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
         <v>10</v>
       </c>
     </row>
@@ -3227,16 +3243,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6272727272727" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3248,7 +3264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>88</v>
       </c>
@@ -3256,7 +3272,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -3265,802 +3281,806 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>1200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>1300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>1400</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>1700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>1800</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>1900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>2000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>2100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>2200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>2300</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>2400</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>2500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>2600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>2700</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>2800</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>2900</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>3000</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>3100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
-        <v>3200</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>3300</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
-        <v>3400</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
-        <v>3500</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
-        <v>3600</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>3700</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>3800</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>3900</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
-        <v>4000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
-        <v>4100</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
-        <v>4200</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
-        <v>4300</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
-        <v>4400</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
-        <v>4500</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
-        <v>4600</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>4700</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1">
-        <v>4800</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1">
-        <v>4900</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
-        <v>5000</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1">
-        <v>5100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>5200</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
-        <v>5300</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1">
-        <v>5400</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
-        <v>5500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>5600</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1">
-        <v>5700</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1">
-        <v>5800</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="1">
-        <v>5900</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1">
-        <v>6000</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1">
-        <v>6100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1">
-        <v>6200</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>6300</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1">
-        <v>6400</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1">
-        <v>6500</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1">
-        <v>6600</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1">
-        <v>6700</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
-        <v>6800</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1">
-        <v>6900</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1">
-        <v>7000</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
-        <v>7100</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1">
-        <v>7200</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1">
-        <v>7300</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1">
-        <v>7400</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1">
-        <v>7500</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1">
-        <v>7600</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1">
-        <v>7700</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1">
-        <v>7800</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1">
-        <v>7900</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1">
-        <v>8000</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>8100</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1">
-        <v>8200</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1">
-        <v>8300</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1">
-        <v>8400</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1">
-        <v>8500</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1">
-        <v>8600</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1">
-        <v>8700</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="1">
-        <v>8800</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1">
-        <v>8900</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="1">
-        <v>9000</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="1">
-        <v>9100</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="1">
-        <v>9200</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="1">
-        <v>9300</v>
+        <v>9200</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="1">
-        <v>9400</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="1">
-        <v>9500</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1">
-        <v>9600</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="1">
-        <v>9700</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1">
-        <v>9800</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="1">
-        <v>9900</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B104" s="1">
         <v>0</v>
       </c>
     </row>
